--- a/Subnet-cidr.xlsx
+++ b/Subnet-cidr.xlsx
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
-  <si>
-    <t xml:space="preserve"> IP Qty</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>IPv4 CIDR</t>
   </si>
@@ -47,21 +44,9 @@
     <t>Fixed-use</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;== Mask</t>
-  </si>
-  <si>
-    <t>Quad's 1 thru 3 are fixed/static</t>
-  </si>
-  <si>
-    <t>Quad's 1 &amp; 2 are 192.168, and Quad-4 is anything</t>
-  </si>
-  <si>
     <t>Quad-2</t>
   </si>
   <si>
-    <t>Quad's 1 is 10, and Quad-3 &amp; 4 are anything</t>
-  </si>
-  <si>
     <t>- broadcast -</t>
   </si>
   <si>
@@ -69,6 +54,33 @@
   </si>
   <si>
     <t xml:space="preserve"> IP's avail</t>
+  </si>
+  <si>
+    <t>Quad's 1 &amp; 2 are fixed/static, Quad-3 is Masked</t>
+  </si>
+  <si>
+    <t>Quad-1 is 172, Quad-2 is 16 thru 31 (fixed/static)</t>
+  </si>
+  <si>
+    <t>Quad's 1-3 are fixed/static, Quad-4 is Masked</t>
+  </si>
+  <si>
+    <t>Quad's 1-2 are 192.168, Quad-3 is 0-255 (fixed/static)</t>
+  </si>
+  <si>
+    <t>Quad-1 is 10, Quad-2 is 0-255 (Masked)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;== Quad-2 Mask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;== Quad-3 Mask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;== Quad-4 Mask</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IP Qty Avail</t>
   </si>
 </sst>
 </file>
@@ -209,19 +221,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -235,21 +243,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -264,14 +257,128 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -549,352 +656,399 @@
   <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>12</v>
-      </c>
-      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="15">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
         <f>256-2^(16-B$4)</f>
-        <v>240</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
         <f>B7*2^(16-B$4)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <f>2^(32-B$4)-2</f>
-        <v>1048574</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>0</v>
+        <v>16777214</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
         <f>2^(B$4-8)-1</f>
-        <v>15</v>
-      </c>
-      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
         <f>C7+2^(16-B$4)-1</f>
-        <v>15</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
+        <v>255</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="5">
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>IF(OR(B4&lt;8,B4&gt;15),1, 0 )</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>IF(OR(B7&lt;B6,B7&gt;B8),1, 0 )</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E10"/>
+  <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>23</v>
-      </c>
-      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="15">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4">
         <f>256-2^(24-B$4)</f>
-        <v>254</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="16"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
         <f>B7*2^(24-B$4)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <f>2^(32-B$4)-2</f>
-        <v>510</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>15</v>
+        <v>65534</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
         <f>2^(B$4-16)-1</f>
-        <v>127</v>
-      </c>
-      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
         <f>C7+2^(24-B$4)-1</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="12"/>
+        <v>255</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>IF(OR(B4&lt;16,B4&gt;23),1, 0 )</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>IF(OR(B7&lt;B6,B7&gt;B8),1, 0 )</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E12"/>
+  <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>29</v>
-      </c>
-      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="15">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4">
         <f>256-2^(32-B$4)</f>
-        <v>248</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="16"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
         <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
         <f>B7*2^(32-B$4)</f>
-        <v>16</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="19"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
         <f>2^(B$4-24)-1</f>
-        <v>31</v>
-      </c>
-      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
         <f>C7+1</f>
-        <v>17</v>
-      </c>
-      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20">
         <f>2^(32-B$4)-2</f>
-        <v>6</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>15</v>
+        <v>254</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9">
+      <c r="C9" s="4">
         <f>C10-1</f>
-        <v>22</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="16"/>
+        <v>254</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10">
+      <c r="C10" s="4">
         <f>C7+2^(32-B$4)-1</f>
-        <v>23</v>
-      </c>
-      <c r="D10" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A13:E13"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
@@ -904,6 +1058,16 @@
     <mergeCell ref="D10:E10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF(OR(B4&lt;24,B4&gt;30),1, 0 )</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(OR(B7&lt;B6,B7&gt;B8),1, 0 )</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Subnet-cidr.xlsx
+++ b/Subnet-cidr.xlsx
@@ -15,13 +15,14 @@
     <sheet name="8 thru 15" sheetId="3" r:id="rId1"/>
     <sheet name="16 thru 23" sheetId="2" r:id="rId2"/>
     <sheet name="24 thru 30" sheetId="1" r:id="rId3"/>
+    <sheet name="Schemes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>IPv4 CIDR</t>
   </si>
@@ -56,21 +57,6 @@
     <t xml:space="preserve"> IP's avail</t>
   </si>
   <si>
-    <t>Quad's 1 &amp; 2 are fixed/static, Quad-3 is Masked</t>
-  </si>
-  <si>
-    <t>Quad-1 is 172, Quad-2 is 16 thru 31 (fixed/static)</t>
-  </si>
-  <si>
-    <t>Quad's 1-3 are fixed/static, Quad-4 is Masked</t>
-  </si>
-  <si>
-    <t>Quad's 1-2 are 192.168, Quad-3 is 0-255 (fixed/static)</t>
-  </si>
-  <si>
-    <t>Quad-1 is 10, Quad-2 is 0-255 (Masked)</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;== Quad-2 Mask</t>
   </si>
   <si>
@@ -81,6 +67,42 @@
   </si>
   <si>
     <t xml:space="preserve"> IP Qty Avail</t>
+  </si>
+  <si>
+    <t>10.0.0.0/8</t>
+  </si>
+  <si>
+    <t>100.64.0.0/10</t>
+  </si>
+  <si>
+    <t>169.254.0.0/16 - DHCP birthing only</t>
+  </si>
+  <si>
+    <t>172.16.0.0/12</t>
+  </si>
+  <si>
+    <t>192.168.0.0/16</t>
+  </si>
+  <si>
+    <t>198.18.0.0/15</t>
+  </si>
+  <si>
+    <t>fc00::/7</t>
+  </si>
+  <si>
+    <t>Private Network IP Blocks</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10^ 36.425  </t>
+  </si>
+  <si>
+    <t>Never specify/allow Fixed-use to be Zero !!!</t>
+  </si>
+  <si>
+    <t>Cidr</t>
   </si>
 </sst>
 </file>
@@ -91,7 +113,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +143,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -216,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -231,81 +260,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <b/>
@@ -653,7 +673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E10"/>
+  <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -667,13 +687,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -686,17 +706,17 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15">
-        <v>8</v>
+      <c r="B4" s="7">
+        <v>13</v>
       </c>
       <c r="C4" s="4">
         <f>256-2^(16-B$4)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6"/>
+        <v>248</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -705,7 +725,7 @@
       <c r="B6" s="4">
         <v>0</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -713,19 +733,19 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
-        <v>0</v>
+      <c r="B7" s="7">
+        <v>1</v>
       </c>
       <c r="C7" s="4">
         <f>B7*2^(16-B$4)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10">
         <f>2^(32-B$4)-2</f>
-        <v>16777214</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>19</v>
+        <v>524286</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -734,53 +754,72 @@
       </c>
       <c r="B8" s="4">
         <f>2^(B$4-8)-1</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4">
         <f>C7+2^(16-B$4)-1</f>
-        <v>255</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="str">
+        <f>VLOOKUP(B4,Schemes!A3:B8,2 )</f>
+        <v>172.16.0.0/12</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26">
+        <f>VLOOKUP(B4,Schemes!A3:C8,3 )</f>
+        <v>1048576</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>IF(OR(B4&lt;8,B4&gt;15),1, 0 )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>IF(OR(B7&lt;B6,B7&gt;B8),1, 0 )</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E16"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -794,13 +833,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -813,17 +852,17 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15">
-        <v>16</v>
+      <c r="B4" s="7">
+        <v>17</v>
       </c>
       <c r="C4" s="4">
         <f>256-2^(24-B$4)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="16"/>
+        <v>128</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -832,7 +871,7 @@
       <c r="B6" s="4">
         <v>0</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -840,19 +879,19 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
-        <v>0</v>
+      <c r="B7" s="7">
+        <v>1</v>
       </c>
       <c r="C7" s="4">
         <f>B7*2^(24-B$4)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
+        <v>128</v>
+      </c>
+      <c r="D7" s="10">
         <f>2^(32-B$4)-2</f>
-        <v>65534</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>19</v>
+        <v>32766</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -861,58 +900,63 @@
       </c>
       <c r="B8" s="4">
         <f>2^(B$4-16)-1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4">
         <f>C7+2^(24-B$4)-1</f>
         <v>255</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E16" s="5"/>
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="str">
+        <f>VLOOKUP(B4,Schemes!A3:B8,2 )</f>
+        <v>192.168.0.0/16</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26">
+        <f>VLOOKUP(B4,Schemes!A3:C8,3 )</f>
+        <v>65536</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>IF(OR(B4&lt;16,B4&gt;23),1, 0 )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>IF(OR(B7&lt;B6,B7&gt;B8),1, 0 )</formula>
     </cfRule>
   </conditionalFormatting>
@@ -924,7 +968,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E13"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -938,29 +982,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15">
-        <v>24</v>
+      <c r="B4" s="7">
+        <v>26</v>
       </c>
       <c r="C4" s="4">
         <f>256-2^(32-B$4)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="16"/>
+        <v>192</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -969,7 +1013,7 @@
       <c r="B6" s="4">
         <v>0</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -977,17 +1021,17 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
-        <v>0</v>
+      <c r="B7" s="7">
+        <v>2</v>
       </c>
       <c r="C7" s="4">
         <f>B7*2^(32-B$4)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -995,15 +1039,15 @@
       </c>
       <c r="B8" s="4">
         <f>2^(B$4-24)-1</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4">
         <f>C7+1</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="20">
+        <v>129</v>
+      </c>
+      <c r="D8" s="15">
         <f>2^(32-B$4)-2</f>
-        <v>254</v>
+        <v>62</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>10</v>
@@ -1012,44 +1056,49 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="4">
         <f>C10-1</f>
-        <v>254</v>
-      </c>
-      <c r="D9" s="21"/>
+        <v>190</v>
+      </c>
+      <c r="D9" s="16"/>
       <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="4">
         <f>C7+2^(32-B$4)-1</f>
-        <v>255</v>
-      </c>
-      <c r="D10" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="str">
+        <f>VLOOKUP(B4,Schemes!A4:B8,2 )</f>
+        <v>192.168.0.0/16</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26">
+        <f>VLOOKUP(B4,Schemes!A4:C8,3 )</f>
+        <v>65536</v>
+      </c>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="8">
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A12:E12"/>
+  <mergeCells count="9">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A14:E14"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="A2:E2"/>
@@ -1071,4 +1120,108 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="23">
+        <v>16777216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="23">
+        <v>4194304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="23">
+        <v>1048576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="23">
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="23">
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="B10:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>